--- a/data/mt_results.xlsx
+++ b/data/mt_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316AD050-DE0A-F948-A5C9-F5FAB99F32EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA26E2-263A-6440-9AA7-11D77F3090FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20020" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="460" windowWidth="20020" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>SF</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Methyloterricola</t>
   </si>
   <si>
-    <t>Methylotenera</t>
-  </si>
-  <si>
     <t>Methylosarcina</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Guild</t>
+  </si>
+  <si>
+    <t>Methylovirgula</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -772,7 +772,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -799,7 +799,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -822,7 +822,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="4"/>
       <c r="E4" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -835,7 +835,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="5"/>
       <c r="E5" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -851,51 +851,45 @@
         <v>7</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="26"/>
       <c r="D7" s="7"/>
       <c r="E7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="8"/>
       <c r="E8" s="34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="G8" s="33"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -903,16 +897,18 @@
       <c r="C9" s="26"/>
       <c r="D9" s="9"/>
       <c r="E9" s="34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -920,93 +916,95 @@
       <c r="C10" s="26"/>
       <c r="D10" s="10"/>
       <c r="E10" s="34" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="34" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="26"/>
       <c r="D12" s="12"/>
       <c r="E12" s="34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
       <c r="D13" s="13"/>
       <c r="E13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="I13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="27"/>
       <c r="C14" s="26"/>
       <c r="D14" s="14"/>
       <c r="E14" s="34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="27"/>
       <c r="C15" s="26"/>
       <c r="D15" s="15"/>
       <c r="E15" s="34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -1014,14 +1012,14 @@
       <c r="C16" s="26"/>
       <c r="D16" s="16"/>
       <c r="E16" s="34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -1029,105 +1027,103 @@
       <c r="C17" s="26"/>
       <c r="D17" s="17"/>
       <c r="E17" s="34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="26"/>
       <c r="D18" s="18"/>
       <c r="E18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="26"/>
       <c r="D19" s="19"/>
       <c r="E19" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="J19" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="27"/>
       <c r="C20" s="26"/>
       <c r="D20" s="20"/>
       <c r="E20" s="34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="26"/>
       <c r="D21" s="21"/>
       <c r="E21" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="26"/>
       <c r="D22" s="22"/>
       <c r="E22" s="34" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="27"/>
       <c r="C23" s="26"/>
       <c r="D23" s="23"/>
       <c r="E23" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>6</v>
@@ -1142,7 +1138,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="24"/>
       <c r="E24" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>6</v>
